--- a/latest_projections/DailyProjections_citywide20240731.xlsx
+++ b/latest_projections/DailyProjections_citywide20240731.xlsx
@@ -458,52 +458,52 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29888 (24207, 38565)</t>
+          <t>25082 (20158, 32636)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1572 (1352, 1898)</t>
+          <t>1365 (1180, 1616)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>129 (85, 182)</t>
+          <t>113 (74, 160)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>113 (70, 164)</t>
+          <t>99 (60, 144)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15 (9, 23)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>11 (7, 17)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3 (2, 6)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>90 (58, 133)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>77 (46, 118)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>12 (7, 18)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>3 (2, 6)</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>96 (62, 141)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>82 (49, 126)</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -535,32 +535,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29739 (23775, 38976)</t>
+          <t>24936 (19809, 32859)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1595 (1364, 1939)</t>
+          <t>1379 (1186, 1645)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>132 (87, 186)</t>
+          <t>115 (75, 163)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>115 (71, 167)</t>
+          <t>100 (60, 146)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>16 (10, 23)</t>
+          <t>15 (9, 21)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>12 (7, 17)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -570,17 +570,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>99 (64, 146)</t>
+          <t>93 (59, 136)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>85 (51, 130)</t>
+          <t>80 (47, 121)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -612,57 +612,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29685 (23395, 39491)</t>
+          <t>24864 (19488, 33189)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1615 (1371, 1980)</t>
+          <t>1393 (1190, 1675)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>133 (88, 189)</t>
+          <t>116 (76, 165)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>116 (71, 170)</t>
+          <t>100 (61, 148)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>17 (10, 24)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>12 (7, 18)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3 (2, 6)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>95 (61, 140)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>82 (48, 124)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>13 (8, 19)</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>3 (2, 7)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>102 (66, 150)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>88 (52, 135)</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>13 (8, 20)</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29695 (23036, 40053)</t>
+          <t>24830 (19210, 33556)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1632 (1374, 2021)</t>
+          <t>1406 (1191, 1707)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>135 (88, 191)</t>
+          <t>117 (76, 167)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>117 (71, 171)</t>
+          <t>101 (61, 149)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>17 (11, 25)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>14 (8, 20)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3 (2, 7)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>106 (68, 155)</t>
+          <t>98 (63, 143)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>91 (54, 139)</t>
+          <t>84 (49, 127)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>14 (8, 21)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>10 (6, 16)</t>
         </is>
       </c>
     </row>
@@ -766,57 +766,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29702 (22722, 40594)</t>
+          <t>24815 (18946, 33918)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1647 (1373, 2062)</t>
+          <t>1416 (1190, 1738)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>135 (89, 194)</t>
+          <t>118 (76, 169)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>117 (71, 173)</t>
+          <t>101 (61, 151)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>18 (11, 26)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3 (2, 7)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>109 (71, 160)</t>
+          <t>100 (64, 146)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>94 (56, 143)</t>
+          <t>86 (51, 130)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>11 (6, 16)</t>
         </is>
       </c>
     </row>
@@ -843,57 +843,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29696 (22420, 41046)</t>
+          <t>24801 (18701, 34266)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1658 (1367, 2100)</t>
+          <t>1424 (1184, 1767)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>136 (89, 196)</t>
+          <t>118 (77, 171)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>117 (71, 175)</t>
+          <t>102 (61, 152)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>18 (11, 27)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3 (2, 7)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>113 (73, 164)</t>
+          <t>102 (66, 149)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>97 (58, 147)</t>
+          <t>88 (52, 133)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>14 (8, 20)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
     </row>
@@ -920,32 +920,32 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29684 (22112, 41469)</t>
+          <t>24792 (18465, 34578)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1666 (1357, 2135)</t>
+          <t>1429 (1175, 1794)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>136 (89, 198)</t>
+          <t>119 (76, 172)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>117 (70, 176)</t>
+          <t>102 (60, 153)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>19 (12, 28)</t>
+          <t>17 (10, 24)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -955,22 +955,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>116 (75, 169)</t>
+          <t>105 (67, 152)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>100 (59, 151)</t>
+          <t>90 (53, 136)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>15 (9, 23)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
     </row>
@@ -997,32 +997,32 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29736 (21893, 41963)</t>
+          <t>24826 (18268, 34969)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1670 (1343, 2167)</t>
+          <t>1431 (1162, 1819)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>136 (88, 199)</t>
+          <t>118 (76, 174)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>116 (70, 177)</t>
+          <t>101 (60, 154)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>19 (12, 28)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>15 (9, 23)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>119 (77, 173)</t>
+          <t>107 (69, 155)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>102 (61, 154)</t>
+          <t>91 (54, 138)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>16 (9, 23)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12 (7, 19)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
     </row>
@@ -1074,57 +1074,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29810 (21691, 42457)</t>
+          <t>24910 (18117, 35381)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1674 (1328, 2197)</t>
+          <t>1433 (1149, 1843)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>136 (88, 201)</t>
+          <t>118 (76, 175)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>116 (69, 178)</t>
+          <t>101 (59, 155)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20 (12, 29)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>15 (9, 23)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3 (2, 8)</t>
+          <t>3 (2, 7)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>122 (79, 176)</t>
+          <t>108 (70, 157)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>104 (62, 158)</t>
+          <t>93 (55, 140)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>16 (10, 24)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>12 (7, 17)</t>
         </is>
       </c>
     </row>
@@ -1151,57 +1151,57 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29842 (21469, 42854)</t>
+          <t>24946 (17950, 35734)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1676 (1313, 2225)</t>
+          <t>1434 (1135, 1866)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>136 (87, 202)</t>
+          <t>118 (75, 176)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>115 (68, 178)</t>
+          <t>100 (58, 155)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20 (12, 29)</t>
+          <t>17 (11, 25)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>16 (10, 23)</t>
+          <t>14 (8, 20)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3 (2, 8)</t>
+          <t>3 (2, 7)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>124 (80, 180)</t>
+          <t>110 (71, 160)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>106 (63, 160)</t>
+          <t>94 (56, 142)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>17 (10, 25)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>13 (8, 20)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
     </row>
@@ -1228,57 +1228,57 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29824 (21239, 43185)</t>
+          <t>24962 (17764, 36037)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1678 (1298, 2251)</t>
+          <t>1434 (1121, 1888)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>135 (86, 203)</t>
+          <t>118 (74, 177)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>114 (67, 179)</t>
+          <t>100 (58, 156)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20 (12, 30)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>16 (10, 24)</t>
+          <t>14 (8, 20)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3 (2, 8)</t>
+          <t>3 (2, 7)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>126 (81, 183)</t>
+          <t>111 (72, 162)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>108 (64, 163)</t>
+          <t>95 (56, 144)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>17 (10, 26)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>14 (8, 20)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
     </row>
@@ -1305,57 +1305,57 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>29757 (20973, 43413)</t>
+          <t>24941 (17575, 36296)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1678 (1284, 2275)</t>
+          <t>1435 (1108, 1909)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>135 (85, 204)</t>
+          <t>118 (74, 178)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>114 (66, 180)</t>
+          <t>99 (57, 157)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20 (12, 30)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>16 (10, 24)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>3 (2, 7)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>128 (82, 186)</t>
+          <t>112 (72, 164)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>109 (65, 165)</t>
+          <t>96 (57, 146)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>17 (11, 26)</t>
+          <t>16 (9, 23)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
     </row>
@@ -1382,57 +1382,57 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29668 (20710, 43544)</t>
+          <t>24905 (17378, 36479)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1678 (1269, 2296)</t>
+          <t>1435 (1095, 1929)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>135 (84, 205)</t>
+          <t>117 (73, 179)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>113 (65, 180)</t>
+          <t>99 (56, 157)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20 (12, 31)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>14 (8, 21)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>3 (2, 7)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>113 (73, 166)</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>97 (57, 147)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>16 (10, 24)</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>4 (2, 8)</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>129 (83, 188)</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>110 (65, 167)</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>18 (11, 27)</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>14 (9, 22)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
     </row>
@@ -1459,57 +1459,57 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29531 (20425, 43600)</t>
+          <t>24838 (17156, 36627)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1677 (1254, 2314)</t>
+          <t>1434 (1082, 1947)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>134 (83, 206)</t>
+          <t>117 (72, 180)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>112 (64, 180)</t>
+          <t>99 (56, 158)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20 (12, 31)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>14 (8, 21)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3 (2, 7)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>114 (73, 168)</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>97 (57, 148)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>16 (10, 24)</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>4 (2, 8)</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>130 (84, 191)</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>111 (66, 169)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>18 (11, 27)</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
     </row>
@@ -1536,32 +1536,32 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27839 (22423, 36662)</t>
+          <t>23312 (18644, 30780)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1474 (1261, 1809)</t>
+          <t>1284 (1106, 1534)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>126 (83, 177)</t>
+          <t>116 (76, 165)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>111 (68, 160)</t>
+          <t>101 (62, 148)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>15 (9, 21)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>11 (7, 17)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1571,22 +1571,22 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>92 (59, 136)</t>
+          <t>94 (61, 138)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>79 (47, 122)</t>
+          <t>81 (48, 123)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>10 (6, 14)</t>
+          <t>10 (6, 15)</t>
         </is>
       </c>
     </row>
@@ -1613,27 +1613,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27598 (21939, 37020)</t>
+          <t>23076 (18262, 30957)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1495 (1273, 1854)</t>
+          <t>1292 (1107, 1558)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>128 (84, 180)</t>
+          <t>117 (77, 166)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>112 (69, 163)</t>
+          <t>101 (62, 149)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16 (9, 23)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1648,17 +1648,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>96 (61, 141)</t>
+          <t>97 (63, 141)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>82 (49, 126)</t>
+          <t>83 (50, 126)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>12 (8, 19)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1690,57 +1690,57 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27468 (21496, 37548)</t>
+          <t>22919 (17896, 31257)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1516 (1281, 1900)</t>
+          <t>1299 (1106, 1584)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>129 (85, 183)</t>
+          <t>117 (77, 167)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>113 (69, 165)</t>
+          <t>101 (62, 150)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>16 (10, 23)</t>
+          <t>15 (10, 23)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>12 (7, 18)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>3 (2, 6)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>99 (64, 144)</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>85 (51, 129)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>13 (8, 19)</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>3 (2, 7)</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>99 (63, 146)</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>85 (50, 131)</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>13 (8, 19)</t>
-        </is>
-      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>10 (6, 16)</t>
         </is>
       </c>
     </row>
@@ -1767,47 +1767,47 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27399 (21100, 38131)</t>
+          <t>22805 (17546, 31605)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1535 (1286, 1948)</t>
+          <t>1305 (1102, 1611)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>130 (86, 185)</t>
+          <t>118 (77, 168)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>113 (69, 166)</t>
+          <t>101 (62, 150)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>17 (10, 24)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3 (2, 7)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>102 (66, 151)</t>
+          <t>101 (66, 148)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>88 (52, 135)</t>
+          <t>87 (52, 132)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>11 (6, 16)</t>
         </is>
       </c>
     </row>
@@ -1844,57 +1844,57 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27340 (20723, 38666)</t>
+          <t>22711 (17239, 31933)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1550 (1286, 1995)</t>
+          <t>1310 (1095, 1638)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>131 (86, 188)</t>
+          <t>118 (77, 169)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>113 (69, 168)</t>
+          <t>101 (61, 151)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>17 (11, 25)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>13 (8, 19)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3 (2, 6)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>104 (67, 151)</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>89 (53, 135)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>14 (8, 20)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>3 (2, 7)</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>106 (68, 155)</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>91 (54, 139)</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>14 (8, 21)</t>
-        </is>
-      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>11 (6, 16)</t>
+          <t>11 (7, 16)</t>
         </is>
       </c>
     </row>
@@ -1921,47 +1921,47 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>27278 (20378, 39181)</t>
+          <t>22609 (16930, 32236)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1561 (1281, 2040)</t>
+          <t>1312 (1085, 1665)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>131 (86, 189)</t>
+          <t>117 (77, 170)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>113 (69, 169)</t>
+          <t>100 (61, 151)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>18 (11, 26)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3 (2, 7)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>109 (70, 160)</t>
+          <t>106 (69, 153)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>94 (55, 143)</t>
+          <t>91 (54, 137)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1998,52 +1998,52 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27209 (20036, 39646)</t>
+          <t>22512 (16645, 32513)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1569 (1270, 2080)</t>
+          <t>1313 (1072, 1689)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>131 (86, 191)</t>
+          <t>117 (76, 170)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>113 (68, 170)</t>
+          <t>100 (60, 151)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>18 (11, 26)</t>
+          <t>17 (10, 24)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>13 (8, 20)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>3 (2, 7)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>108 (70, 156)</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>93 (55, 139)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>14 (9, 21)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>3 (2, 7)</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>112 (72, 164)</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>96 (57, 147)</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2075,57 +2075,57 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27135 (19720, 40099)</t>
+          <t>22423 (16364, 32804)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1571 (1256, 2116)</t>
+          <t>1310 (1056, 1713)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>131 (85, 192)</t>
+          <t>116 (75, 171)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>112 (67, 170)</t>
+          <t>99 (59, 151)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>19 (11, 27)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>13 (8, 20)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3 (2, 7)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>109 (71, 158)</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>94 (56, 141)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>15 (9, 22)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>3 (2, 7)</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>115 (74, 168)</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>99 (58, 150)</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>15 (9, 23)</t>
-        </is>
-      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>12 (7, 17)</t>
         </is>
       </c>
     </row>
@@ -2152,52 +2152,52 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>27058 (19407, 40478)</t>
+          <t>22332 (16103, 33081)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1571 (1238, 2149)</t>
+          <t>1306 (1039, 1736)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>130 (84, 193)</t>
+          <t>115 (74, 171)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>111 (66, 171)</t>
+          <t>97 (58, 150)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>19 (12, 28)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>13 (8, 20)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>3 (2, 7)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>111 (72, 160)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>95 (57, 143)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>15 (9, 22)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>3 (2, 8)</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>117 (76, 171)</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>101 (60, 153)</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>16 (9, 23)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2229,57 +2229,57 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26970 (19093, 40809)</t>
+          <t>22239 (15843, 33320)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1570 (1220, 2180)</t>
+          <t>1301 (1021, 1758)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>129 (83, 194)</t>
+          <t>114 (73, 171)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>110 (65, 171)</t>
+          <t>96 (57, 150)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>19 (12, 28)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>3 (2, 7)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>120 (77, 174)</t>
+          <t>112 (73, 162)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>103 (61, 155)</t>
+          <t>96 (57, 144)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>16 (10, 24)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
     </row>
@@ -2306,57 +2306,57 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26838 (18775, 41054)</t>
+          <t>22127 (15577, 33516)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1567 (1202, 2208)</t>
+          <t>1296 (1004, 1777)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>128 (82, 194)</t>
+          <t>113 (72, 170)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>109 (63, 171)</t>
+          <t>95 (56, 150)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>19 (12, 28)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>13 (8, 20)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>3 (2, 7)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>113 (73, 164)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>96 (58, 145)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>15 (9, 23)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>4 (2, 8)</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>121 (78, 177)</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>104 (62, 158)</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>16 (10, 25)</t>
-        </is>
-      </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>13 (8, 20)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
     </row>
@@ -2383,57 +2383,57 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>26691 (18462, 41233)</t>
+          <t>21991 (15313, 33673)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1563 (1182, 2232)</t>
+          <t>1291 (986, 1796)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>127 (81, 194)</t>
+          <t>112 (71, 170)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>108 (62, 171)</t>
+          <t>94 (55, 149)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>19 (12, 29)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>15 (9, 23)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>3 (2, 7)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>123 (79, 179)</t>
+          <t>113 (73, 165)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>105 (62, 160)</t>
+          <t>97 (58, 146)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>17 (10, 25)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>13 (8, 20)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
     </row>
@@ -2460,57 +2460,57 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>26505 (18128, 41345)</t>
+          <t>21853 (15046, 33799)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1558 (1163, 2253)</t>
+          <t>1285 (969, 1813)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>126 (79, 194)</t>
+          <t>110 (69, 170)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>106 (61, 170)</t>
+          <t>92 (53, 149)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>19 (12, 29)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>15 (9, 23)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>3 (2, 7)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>124 (80, 182)</t>
+          <t>113 (73, 166)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>106 (63, 161)</t>
+          <t>97 (58, 147)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>17 (10, 26)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>14 (8, 21)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
     </row>
@@ -2537,57 +2537,57 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26304 (17793, 41374)</t>
+          <t>21701 (14780, 33865)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1551 (1144, 2271)</t>
+          <t>1278 (952, 1827)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>125 (78, 194)</t>
+          <t>109 (68, 169)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>105 (60, 170)</t>
+          <t>91 (52, 148)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>19 (12, 29)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>15 (9, 23)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>3 (2, 7)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>125 (80, 184)</t>
+          <t>113 (73, 167)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>106 (63, 163)</t>
+          <t>97 (58, 148)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>17 (10, 26)</t>
+          <t>16 (10, 24)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>13 (8, 19)</t>
         </is>
       </c>
     </row>
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>768 (425, 1323)</t>
+          <t>696 (383, 1204)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>675 (333, 1221)</t>
+          <t>604 (295, 1105)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>69 (32, 139)</t>
+          <t>67 (30, 136)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>66 (37, 111)</t>
+          <t>64 (35, 107)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>768 (425, 1323)</t>
+          <t>696 (383, 1204)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>675 (333, 1221)</t>
+          <t>604 (295, 1105)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>69 (32, 139)</t>
+          <t>67 (30, 136)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>66 (37, 111)</t>
+          <t>64 (35, 107)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>796 (440, 1368)</t>
+          <t>715 (393, 1234)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>701 (345, 1263)</t>
+          <t>621 (303, 1134)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>72 (33, 143)</t>
+          <t>69 (31, 139)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>69 (39, 115)</t>
+          <t>65 (36, 109)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>796 (440, 1368)</t>
+          <t>715 (393, 1234)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>701 (345, 1263)</t>
+          <t>621 (303, 1134)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>72 (33, 143)</t>
+          <t>69 (31, 139)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>69 (39, 115)</t>
+          <t>65 (36, 109)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>823 (453, 1412)</t>
+          <t>732 (401, 1264)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>724 (354, 1304)</t>
+          <t>636 (309, 1162)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>74 (34, 148)</t>
+          <t>70 (32, 142)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>71 (40, 119)</t>
+          <t>67 (37, 112)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>823 (453, 1412)</t>
+          <t>732 (401, 1264)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>724 (354, 1304)</t>
+          <t>636 (309, 1162)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>74 (34, 148)</t>
+          <t>70 (32, 142)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>71 (40, 119)</t>
+          <t>67 (37, 112)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>845 (463, 1454)</t>
+          <t>747 (408, 1293)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>743 (362, 1343)</t>
+          <t>649 (313, 1188)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>77 (35, 153)</t>
+          <t>72 (33, 146)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>73 (42, 123)</t>
+          <t>68 (38, 114)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>845 (463, 1454)</t>
+          <t>747 (408, 1293)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>743 (362, 1343)</t>
+          <t>649 (313, 1188)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>77 (35, 153)</t>
+          <t>72 (33, 146)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>73 (42, 123)</t>
+          <t>68 (38, 114)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>865 (472, 1494)</t>
+          <t>761 (414, 1321)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>760 (367, 1380)</t>
+          <t>660 (317, 1213)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80 (37, 158)</t>
+          <t>74 (34, 149)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>76 (43, 127)</t>
+          <t>70 (39, 117)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>865 (472, 1494)</t>
+          <t>761 (414, 1321)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>760 (367, 1380)</t>
+          <t>660 (317, 1213)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>80 (37, 158)</t>
+          <t>74 (34, 149)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>76 (43, 127)</t>
+          <t>70 (39, 117)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>882 (478, 1532)</t>
+          <t>772 (418, 1347)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>773 (370, 1414)</t>
+          <t>669 (318, 1236)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>83 (38, 163)</t>
+          <t>76 (35, 153)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>79 (45, 131)</t>
+          <t>72 (40, 120)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>882 (478, 1532)</t>
+          <t>772 (418, 1347)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>773 (370, 1414)</t>
+          <t>669 (318, 1236)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>83 (38, 163)</t>
+          <t>76 (35, 153)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>79 (45, 131)</t>
+          <t>72 (40, 120)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>897 (483, 1566)</t>
+          <t>781 (421, 1371)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>784 (372, 1444)</t>
+          <t>677 (319, 1257)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>86 (39, 169)</t>
+          <t>78 (35, 157)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>81 (46, 135)</t>
+          <t>74 (41, 123)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>897 (483, 1566)</t>
+          <t>781 (421, 1371)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>784 (372, 1444)</t>
+          <t>677 (319, 1257)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>86 (39, 169)</t>
+          <t>78 (35, 157)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>81 (46, 135)</t>
+          <t>74 (41, 123)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>908 (486, 1597)</t>
+          <t>789 (423, 1393)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>792 (372, 1471)</t>
+          <t>683 (319, 1276)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>88 (40, 174)</t>
+          <t>79 (36, 160)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>84 (47, 139)</t>
+          <t>75 (42, 126)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>908 (486, 1597)</t>
+          <t>789 (423, 1393)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>792 (372, 1471)</t>
+          <t>683 (319, 1276)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>88 (40, 174)</t>
+          <t>79 (36, 160)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>84 (47, 139)</t>
+          <t>75 (42, 126)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>916 (487, 1623)</t>
+          <t>795 (423, 1412)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>798 (371, 1493)</t>
+          <t>686 (318, 1292)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>91 (41, 179)</t>
+          <t>81 (37, 164)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>86 (48, 143)</t>
+          <t>77 (43, 128)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>916 (487, 1623)</t>
+          <t>795 (423, 1412)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>798 (371, 1493)</t>
+          <t>686 (318, 1292)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>91 (41, 179)</t>
+          <t>81 (37, 164)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>86 (48, 143)</t>
+          <t>77 (43, 128)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>923 (487, 1646)</t>
+          <t>800 (423, 1430)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>801 (369, 1512)</t>
+          <t>688 (316, 1306)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>93 (42, 184)</t>
+          <t>82 (37, 167)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>88 (49, 147)</t>
+          <t>78 (43, 131)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>923 (487, 1646)</t>
+          <t>800 (423, 1430)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>801 (369, 1512)</t>
+          <t>688 (316, 1306)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>93 (42, 184)</t>
+          <t>82 (37, 167)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>88 (49, 147)</t>
+          <t>78 (43, 131)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>928 (486, 1665)</t>
+          <t>803 (422, 1445)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>803 (366, 1527)</t>
+          <t>689 (314, 1318)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>94 (42, 189)</t>
+          <t>84 (37, 170)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90 (50, 151)</t>
+          <t>79 (44, 133)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>928 (486, 1665)</t>
+          <t>803 (422, 1445)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>803 (366, 1527)</t>
+          <t>689 (314, 1318)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>94 (42, 189)</t>
+          <t>84 (37, 170)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>90 (50, 151)</t>
+          <t>79 (44, 133)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>931 (484, 1680)</t>
+          <t>804 (420, 1459)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>803 (362, 1539)</t>
+          <t>690 (311, 1328)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96 (43, 193)</t>
+          <t>85 (38, 173)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>91 (51, 154)</t>
+          <t>80 (44, 135)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>931 (484, 1680)</t>
+          <t>804 (420, 1459)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>803 (362, 1539)</t>
+          <t>690 (311, 1328)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>96 (43, 193)</t>
+          <t>85 (38, 173)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>91 (51, 154)</t>
+          <t>80 (44, 135)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>932 (481, 1693)</t>
+          <t>805 (418, 1470)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>802 (358, 1550)</t>
+          <t>689 (308, 1337)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>97 (43, 197)</t>
+          <t>86 (38, 176)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>93 (51, 157)</t>
+          <t>81 (44, 137)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>932 (481, 1693)</t>
+          <t>805 (418, 1470)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>802 (358, 1550)</t>
+          <t>689 (308, 1337)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>97 (43, 197)</t>
+          <t>86 (38, 176)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>93 (51, 157)</t>
+          <t>81 (44, 137)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>933 (478, 1704)</t>
+          <t>804 (416, 1479)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>801 (354, 1558)</t>
+          <t>687 (305, 1345)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>98 (43, 201)</t>
+          <t>86 (38, 178)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>93 (52, 159)</t>
+          <t>81 (45, 138)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>933 (478, 1704)</t>
+          <t>804 (416, 1479)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>801 (354, 1558)</t>
+          <t>687 (305, 1345)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>98 (43, 201)</t>
+          <t>86 (38, 178)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>93 (52, 159)</t>
+          <t>81 (45, 138)</t>
         </is>
       </c>
     </row>
@@ -3557,42 +3557,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>758 (417, 1293)</t>
+          <t>742 (408, 1285)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>667 (330, 1190)</t>
+          <t>649 (319, 1185)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>68 (30, 136)</t>
+          <t>70 (31, 138)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>66 (37, 110)</t>
+          <t>68 (38, 113)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>758 (417, 1293)</t>
+          <t>742 (408, 1285)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>667 (330, 1190)</t>
+          <t>649 (319, 1185)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>68 (30, 136)</t>
+          <t>70 (31, 138)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>66 (37, 110)</t>
+          <t>68 (38, 113)</t>
         </is>
       </c>
     </row>
@@ -3619,42 +3619,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>786 (431, 1338)</t>
+          <t>759 (417, 1315)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>691 (342, 1232)</t>
+          <t>664 (325, 1211)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>70 (32, 140)</t>
+          <t>71 (32, 142)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>68 (38, 113)</t>
+          <t>69 (39, 116)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>786 (431, 1338)</t>
+          <t>759 (417, 1315)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>691 (342, 1232)</t>
+          <t>664 (325, 1211)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>70 (32, 140)</t>
+          <t>71 (32, 142)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>68 (38, 113)</t>
+          <t>69 (39, 116)</t>
         </is>
       </c>
     </row>
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>810 (443, 1382)</t>
+          <t>774 (423, 1343)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>713 (352, 1273)</t>
+          <t>677 (330, 1236)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>72 (33, 144)</t>
+          <t>73 (33, 145)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>70 (39, 117)</t>
+          <t>71 (40, 118)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>810 (443, 1382)</t>
+          <t>774 (423, 1343)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>713 (352, 1273)</t>
+          <t>677 (330, 1236)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>72 (33, 144)</t>
+          <t>73 (33, 145)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>70 (39, 117)</t>
+          <t>71 (40, 118)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>832 (454, 1424)</t>
+          <t>786 (428, 1369)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>732 (359, 1311)</t>
+          <t>687 (333, 1260)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>75 (34, 149)</t>
+          <t>75 (34, 148)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>73 (41, 121)</t>
+          <t>72 (41, 121)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>832 (454, 1424)</t>
+          <t>786 (428, 1369)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>732 (359, 1311)</t>
+          <t>687 (333, 1260)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>75 (34, 149)</t>
+          <t>75 (34, 148)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>73 (41, 121)</t>
+          <t>72 (41, 121)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>851 (462, 1463)</t>
+          <t>796 (432, 1391)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>748 (364, 1347)</t>
+          <t>695 (335, 1281)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>78 (35, 154)</t>
+          <t>77 (34, 152)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>75 (42, 125)</t>
+          <t>74 (42, 124)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>851 (462, 1463)</t>
+          <t>796 (432, 1391)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>748 (364, 1347)</t>
+          <t>695 (335, 1281)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>78 (35, 154)</t>
+          <t>77 (34, 152)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>75 (42, 125)</t>
+          <t>74 (42, 124)</t>
         </is>
       </c>
     </row>
@@ -3867,42 +3867,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>867 (468, 1500)</t>
+          <t>805 (434, 1412)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>760 (367, 1379)</t>
+          <t>702 (334, 1299)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>81 (37, 159)</t>
+          <t>78 (35, 155)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>78 (44, 129)</t>
+          <t>76 (43, 127)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>867 (468, 1500)</t>
+          <t>805 (434, 1412)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>760 (367, 1379)</t>
+          <t>702 (334, 1299)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>81 (37, 159)</t>
+          <t>78 (35, 155)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>78 (44, 129)</t>
+          <t>76 (43, 127)</t>
         </is>
       </c>
     </row>
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>880 (471, 1532)</t>
+          <t>810 (434, 1430)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>770 (368, 1408)</t>
+          <t>705 (333, 1314)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>83 (38, 164)</t>
+          <t>80 (36, 158)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>81 (45, 133)</t>
+          <t>77 (43, 129)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>880 (471, 1532)</t>
+          <t>810 (434, 1430)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>770 (368, 1408)</t>
+          <t>705 (333, 1314)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>83 (38, 164)</t>
+          <t>80 (36, 158)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>81 (45, 133)</t>
+          <t>77 (43, 129)</t>
         </is>
       </c>
     </row>
@@ -3991,42 +3991,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>890 (473, 1561)</t>
+          <t>814 (433, 1445)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>776 (367, 1433)</t>
+          <t>707 (330, 1328)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>86 (39, 169)</t>
+          <t>81 (36, 162)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>83 (47, 137)</t>
+          <t>79 (44, 132)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>890 (473, 1561)</t>
+          <t>814 (433, 1445)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>776 (367, 1433)</t>
+          <t>707 (330, 1328)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>86 (39, 169)</t>
+          <t>81 (36, 162)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>83 (47, 137)</t>
+          <t>79 (44, 132)</t>
         </is>
       </c>
     </row>
@@ -4053,42 +4053,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>897 (473, 1586)</t>
+          <t>815 (431, 1457)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>780 (365, 1454)</t>
+          <t>707 (326, 1337)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>88 (40, 174)</t>
+          <t>82 (37, 165)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>85 (48, 141)</t>
+          <t>80 (45, 134)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>897 (473, 1586)</t>
+          <t>815 (431, 1457)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>780 (365, 1454)</t>
+          <t>707 (326, 1337)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>88 (40, 174)</t>
+          <t>82 (37, 165)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>85 (48, 141)</t>
+          <t>80 (45, 134)</t>
         </is>
       </c>
     </row>
@@ -4115,42 +4115,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>901 (471, 1606)</t>
+          <t>815 (427, 1466)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>782 (361, 1471)</t>
+          <t>705 (322, 1344)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>90 (40, 179)</t>
+          <t>83 (37, 167)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>87 (49, 145)</t>
+          <t>81 (45, 136)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>901 (471, 1606)</t>
+          <t>815 (427, 1466)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>782 (361, 1471)</t>
+          <t>705 (322, 1344)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>90 (40, 179)</t>
+          <t>83 (37, 167)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>87 (49, 145)</t>
+          <t>81 (45, 136)</t>
         </is>
       </c>
     </row>
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>903 (468, 1623)</t>
+          <t>813 (422, 1472)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>781 (357, 1485)</t>
+          <t>702 (317, 1347)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>91 (41, 183)</t>
+          <t>84 (37, 170)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>89 (50, 148)</t>
+          <t>82 (46, 138)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>903 (468, 1623)</t>
+          <t>813 (422, 1472)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>781 (357, 1485)</t>
+          <t>702 (317, 1347)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>91 (41, 183)</t>
+          <t>84 (37, 170)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>89 (50, 148)</t>
+          <t>82 (46, 138)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>903 (464, 1636)</t>
+          <t>809 (417, 1475)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>778 (351, 1496)</t>
+          <t>697 (311, 1348)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>93 (41, 187)</t>
+          <t>85 (37, 172)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>90 (50, 151)</t>
+          <t>82 (46, 139)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>903 (464, 1636)</t>
+          <t>809 (417, 1475)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>778 (351, 1496)</t>
+          <t>697 (311, 1348)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>93 (41, 187)</t>
+          <t>85 (37, 172)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>90 (50, 151)</t>
+          <t>82 (46, 139)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>901 (460, 1646)</t>
+          <t>805 (412, 1475)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>774 (345, 1503)</t>
+          <t>692 (305, 1347)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>94 (41, 190)</t>
+          <t>85 (37, 173)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>91 (51, 154)</t>
+          <t>83 (46, 141)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>901 (460, 1646)</t>
+          <t>805 (412, 1475)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>774 (345, 1503)</t>
+          <t>692 (305, 1347)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>94 (41, 190)</t>
+          <t>85 (37, 173)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>91 (51, 154)</t>
+          <t>83 (46, 141)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>898 (455, 1653)</t>
+          <t>799 (406, 1474)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>769 (339, 1507)</t>
+          <t>685 (299, 1345)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>95 (41, 193)</t>
+          <t>85 (37, 175)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>92 (51, 156)</t>
+          <t>83 (46, 142)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>898 (455, 1653)</t>
+          <t>799 (406, 1474)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>769 (339, 1507)</t>
+          <t>685 (299, 1345)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>95 (41, 193)</t>
+          <t>85 (37, 175)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>92 (51, 156)</t>
+          <t>83 (46, 142)</t>
         </is>
       </c>
     </row>
